--- a/Planificación/Casos de Uso.xlsx
+++ b/Planificación/Casos de Uso.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D44AE38-9B46-44D7-BE14-5658D5C3299E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBD04B9-10DA-4C39-8159-49C6C86CFC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="CU-001" sheetId="1" r:id="rId1"/>
+    <sheet name="CU-002" sheetId="3" r:id="rId2"/>
+    <sheet name="CU-003" sheetId="5" r:id="rId3"/>
+    <sheet name="CU-004" sheetId="6" r:id="rId4"/>
+    <sheet name="CU-005" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="58">
   <si>
     <t>Versión</t>
   </si>
@@ -112,11 +116,6 @@
     <t>Requisitos Relacionados</t>
   </si>
   <si>
-    <t>RF-01: El sistema debe permitir que los empleados inicien sesión con un nombre de usuario y contraseña.
-RF-02: El sistema debe permitir el cierre de sesiones por solicitud del usuario.
-RF-03: Permitir que los usuarios recuerden sus credenciales para que no necesiten iniciar sesión cada vez que accedan al sistema (opción de "Recordar usuario").</t>
-  </si>
-  <si>
     <t>La opción "Recordar usuario" debe implementarse con medidas de seguridad adecuadas para proteger la información del usuario.
 El diseño de la interfaz debe ser intuitivo y accesible para todos los tipos de usuarios.</t>
   </si>
@@ -125,6 +124,104 @@
   </si>
   <si>
     <t>Secuencia Alterna</t>
+  </si>
+  <si>
+    <t>CU-002</t>
+  </si>
+  <si>
+    <t>Crear Nuevos Usuarios</t>
+  </si>
+  <si>
+    <t>Actor(es) Principal(es)</t>
+  </si>
+  <si>
+    <t>Administrador, Digitador INTECIL, Digitador VISA</t>
+  </si>
+  <si>
+    <t>El administrador debe estar autenticado en el sistema.</t>
+  </si>
+  <si>
+    <t>Un nuevo usuario es creado y almacenado en el sistema.</t>
+  </si>
+  <si>
+    <t>El administrador selecciona la opción "Crear Nuevo Usuario".</t>
+  </si>
+  <si>
+    <t>El sistema presenta un formulario de creación de usuario.</t>
+  </si>
+  <si>
+    <t>El administrador ingresa los datos del nuevo usuario (nombre, correo, etc.).</t>
+  </si>
+  <si>
+    <t>El administrador selecciona un rol predefinido para el nuevo usuario.</t>
+  </si>
+  <si>
+    <t>El administrador envía el formulario.</t>
+  </si>
+  <si>
+    <t>El sistema valida los datos ingresados.</t>
+  </si>
+  <si>
+    <t>Si la validación es exitosa, el sistema crea el nuevo usuario y muestra un mensaje de confirmación.</t>
+  </si>
+  <si>
+    <t>Si la validación no es exitosa debido a un error de usuario ya existente, o las credenciales no cumplen con los requisitos especificados se muestra un mensaje por pantalla indicando el error</t>
+  </si>
+  <si>
+    <t>RF-24: Permitir que los administradores creen nuevos usuarios en el sistema</t>
+  </si>
+  <si>
+    <t>El administrador debe haber iniciado sesión en el sistema.
+El sistema debe tener roles predefinidos disponibles (Digitador VISA, Digitador INTECIL, Administrador).
+El usuario al que se le asignará un rol debe existir en el sistema.</t>
+  </si>
+  <si>
+    <t>Este caso de uso permite que el usuario administrador pueda definir un rol predefinido a usuarios ya existentes</t>
+  </si>
+  <si>
+    <t>El administrador selecciona la opción para gestionar usuarios.</t>
+  </si>
+  <si>
+    <t>El administrador selecciona al usuario al que quiere asignar un rol.</t>
+  </si>
+  <si>
+    <t>El sistema muestra los roles predefinidos disponibles.</t>
+  </si>
+  <si>
+    <t>El administrador selecciona un rol (Digitador VISA, Digitador INTECIL, Administrador).</t>
+  </si>
+  <si>
+    <t>El sistema guarda la asignación del rol al usuario.</t>
+  </si>
+  <si>
+    <t>El sistema notifica al administrador que el rol ha sido asignado exitosamente.</t>
+  </si>
+  <si>
+    <t>El usuario tiene asignado un rol específico que le otorga ciertos permisos.</t>
+  </si>
+  <si>
+    <t>CU-003</t>
+  </si>
+  <si>
+    <t>Asignar roles predefinidos a los usuarios</t>
+  </si>
+  <si>
+    <t>RF-25</t>
+  </si>
+  <si>
+    <t>RF-24</t>
+  </si>
+  <si>
+    <t>RF-01
+RF-02
+RF-03</t>
+  </si>
+  <si>
+    <t>RF-26</t>
+  </si>
+  <si>
+    <t>El administrador debe haber iniciado sesión en el sistema.
+Los roles deben estar creados previamente.</t>
   </si>
 </sst>
 </file>
@@ -161,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -184,25 +281,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -211,13 +309,37 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D21"/>
+  <dimension ref="B3:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,189 +635,926 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:4" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2">
-        <v>6</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2">
-        <v>7</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2">
-        <v>8</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2">
-        <v>9</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="6"/>
+      <c r="D22" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C20:D20"/>
+  <mergeCells count="8">
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DECDDB-E5B6-4606-A7E7-6139254315F6}">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="68.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99167D0F-3449-4DDB-9F53-C868C5586959}">
+  <dimension ref="B3:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="68.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="2:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2BBC02-B57F-4696-A9BE-96A04455ED5C}">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="68.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="2:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A32A5BF-2D70-4BC7-A352-7C53E7059BA8}">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="68.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Planificación/Casos de Uso.xlsx
+++ b/Planificación/Casos de Uso.xlsx
@@ -5,19 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Planificación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBD04B9-10DA-4C39-8159-49C6C86CFC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAE21CF-EE11-441D-8739-E5ABF7F6B28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CU-001" sheetId="1" r:id="rId1"/>
-    <sheet name="CU-002" sheetId="3" r:id="rId2"/>
-    <sheet name="CU-003" sheetId="5" r:id="rId3"/>
-    <sheet name="CU-004" sheetId="6" r:id="rId4"/>
-    <sheet name="CU-005" sheetId="7" r:id="rId5"/>
+    <sheet name="CU-002" sheetId="8" r:id="rId2"/>
+    <sheet name="CU-003" sheetId="7" r:id="rId3"/>
+    <sheet name="CU-004" sheetId="9" r:id="rId4"/>
+    <sheet name="CU-005" sheetId="10" r:id="rId5"/>
+    <sheet name="CU-006" sheetId="11" r:id="rId6"/>
+    <sheet name="CU-007" sheetId="3" r:id="rId7"/>
+    <sheet name="CU-008" sheetId="5" r:id="rId8"/>
+    <sheet name="CU-009" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="120">
   <si>
     <t>Versión</t>
   </si>
@@ -168,9 +172,6 @@
     <t>Si la validación no es exitosa debido a un error de usuario ya existente, o las credenciales no cumplen con los requisitos especificados se muestra un mensaje por pantalla indicando el error</t>
   </si>
   <si>
-    <t>RF-24: Permitir que los administradores creen nuevos usuarios en el sistema</t>
-  </si>
-  <si>
     <t>El administrador debe haber iniciado sesión en el sistema.
 El sistema debe tener roles predefinidos disponibles (Digitador VISA, Digitador INTECIL, Administrador).
 El usuario al que se le asignará un rol debe existir en el sistema.</t>
@@ -209,9 +210,6 @@
     <t>RF-25</t>
   </si>
   <si>
-    <t>RF-24</t>
-  </si>
-  <si>
     <t>RF-01
 RF-02
 RF-03</t>
@@ -222,6 +220,204 @@
   <si>
     <t>El administrador debe haber iniciado sesión en el sistema.
 Los roles deben estar creados previamente.</t>
+  </si>
+  <si>
+    <t>Enviar solicitud de Revisiòn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Digitador VISA</t>
+  </si>
+  <si>
+    <t>El usuario debe estar logeado en el sistema</t>
+  </si>
+  <si>
+    <t>Este caso de uso permite que el usuario 'Digitador VISA' pueda enviar un formulario de solicitud de revisiòn de un lote</t>
+  </si>
+  <si>
+    <t>El usuario hace click en el modulo 'Crear Formulario VISA'</t>
+  </si>
+  <si>
+    <t>El usuario ingresa los datos requeridos (Nº de Lote, Cliente, Archivos adjuntos, y comentarios)</t>
+  </si>
+  <si>
+    <t>El usuario hace click en 'enviar'</t>
+  </si>
+  <si>
+    <t>Si faltan campos por ingresar el sistema debe indicar que se de deben completar todos los campos para enviar el formulario</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>RF-04, RF-05, RF-06, RF-07, RF-08, RF-09, RF-10</t>
+  </si>
+  <si>
+    <t>El formulario esta creado asignado al usuario que lo creo, y esta disponible para su visualizacón por todos los usuarios (Administrador, Digitador VISA, Digitador INTECIL). El sistema agrega un estado al formulario "Por Revisión"</t>
+  </si>
+  <si>
+    <t>Revisión Lote</t>
+  </si>
+  <si>
+    <t>RF-11
+RF-12
+RF-13
+RF-14
+RF-15
+RF-16
+RF-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Digitador INTECIL</t>
+  </si>
+  <si>
+    <t>El usuario debe estar logeado en el sistema y debe existir un formulario de solicitud de revisión</t>
+  </si>
+  <si>
+    <t>Este caso de uso permite que el usuario 'Digitador INTECIL' pueda revisar el lote generado en el CU-002</t>
+  </si>
+  <si>
+    <t>El usuario ingresa al modulo 'Lotes Subidos'</t>
+  </si>
+  <si>
+    <t>El sistema presenta una tabla con todos los formularios con el estado "Por Revisar"</t>
+  </si>
+  <si>
+    <t>El usuario ingresa a un formulario</t>
+  </si>
+  <si>
+    <t>El usuario descarga los archivos adjuntos</t>
+  </si>
+  <si>
+    <t>El usuario guarda el formulario</t>
+  </si>
+  <si>
+    <t>Una vez que el usuario descarga los archivos adjuntos el formulario cambia de estado a "En Revisión"</t>
+  </si>
+  <si>
+    <t>El sistema cambia el estado del formulario a "Revisado"</t>
+  </si>
+  <si>
+    <t>El usuario modifica el formulario y le asigna un estado a la revisión (OK o Corregir)</t>
+  </si>
+  <si>
+    <t>El usuario ingresa comentarios en base a la revision efectuada</t>
+  </si>
+  <si>
+    <t>El usuario adjunta documentación asociada a la revisión efectuada</t>
+  </si>
+  <si>
+    <t>El formulario es modificado y se le asocia una revisión al formulario</t>
+  </si>
+  <si>
+    <t>Si el usuario no ingresa todos los campos correspondientes el sistema debe enviar un mensaje por pantalla indicando que se deben completar todos los campos para efectuar la revisión</t>
+  </si>
+  <si>
+    <t>CU-004</t>
+  </si>
+  <si>
+    <t>Corregir Lote</t>
+  </si>
+  <si>
+    <t>RF-18, 19, 20</t>
+  </si>
+  <si>
+    <t>El usuario tiene que estar logeado previamente en el sistema, tambien debe existir un formulario con el estado "Revisado" y con el estado de la revisión "Corregir"</t>
+  </si>
+  <si>
+    <t>Digitador VISA</t>
+  </si>
+  <si>
+    <t>Este caso de uso permite que el usuario pueda descargar la información relacionada a la corrección de un lote especifico</t>
+  </si>
+  <si>
+    <t>El usuario ingresa al formulario que tiene el estado de revisión "Corregir"</t>
+  </si>
+  <si>
+    <t>El usuario ingresa al modulo "Lotes Subidos"</t>
+  </si>
+  <si>
+    <t>El sistema muestra una tabla con los formularios subidos</t>
+  </si>
+  <si>
+    <t>El usuario descarga la información asociada a la revisión</t>
+  </si>
+  <si>
+    <t>Una vez realizada la correción el usuario modifica el estado de la revisión a "OK"</t>
+  </si>
+  <si>
+    <t>El formulario queda con el estado de revisión OK</t>
+  </si>
+  <si>
+    <t>RF-21</t>
+  </si>
+  <si>
+    <t>El usuario debe estar logeado en el sistema, el formulario debe tener los siguientes estados: Estado Revisión "OK", Estado "Revisado"</t>
+  </si>
+  <si>
+    <t>Este caso de uso permite que a el lote revisado se le agregue una solicitud de impresión</t>
+  </si>
+  <si>
+    <t>El usuario ingresa al modulo de "Lotes Subidos"</t>
+  </si>
+  <si>
+    <t>El usuario ingresa a un formulario que tenga el estado de revision "ok" y el estado "Revisado"</t>
+  </si>
+  <si>
+    <t>El sistema muestra por pantalla que esta disponible para solicitar la impresión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario adjunta archivos para imprimir </t>
+  </si>
+  <si>
+    <t>El usuario envia la solicitud de impresión</t>
+  </si>
+  <si>
+    <t>Si el usuario no incluye los archivos para imprimir el sistema debe indicar por pantalla que debe adjuntarlos</t>
+  </si>
+  <si>
+    <t>CU-005</t>
+  </si>
+  <si>
+    <t>Crear solicitud de impresión</t>
+  </si>
+  <si>
+    <t>CU-006</t>
+  </si>
+  <si>
+    <t>Impresión Lote</t>
+  </si>
+  <si>
+    <t>RF-22, 23, 24</t>
+  </si>
+  <si>
+    <t>Digitador INTECIL</t>
+  </si>
+  <si>
+    <t>El usuario debe estar logeado en el sistema y debe existir un formulario que tenga una solicitud de impresiòn asociada</t>
+  </si>
+  <si>
+    <t>Este caso de uso permite el usuario pueda descargar la información del lote para su posterior impresión</t>
+  </si>
+  <si>
+    <t>Al formulario se le asigna una solicitud de impresión, el estado del formulario cambia a "Por Impresión" y esta solicitud es visible para todos los usuarios</t>
+  </si>
+  <si>
+    <t>El usuario ingresa a un formulario que tenga el estado de impresión "Por Impresión"</t>
+  </si>
+  <si>
+    <t>El usuario descarga la información para imprimir</t>
+  </si>
+  <si>
+    <t>El sistema modifica el estado de impresión del formulario a "En Impresión"</t>
+  </si>
+  <si>
+    <t>El formulario queda en estado "En Impresión"</t>
+  </si>
+  <si>
+    <t>Se debe tener en consideracion si el usuario no descarga los archivos para impresión el estado no cambiara hasta que los archivos sean descargados</t>
+  </si>
+  <si>
+    <t>RF-27</t>
   </si>
 </sst>
 </file>
@@ -258,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -292,11 +488,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -327,6 +549,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -336,9 +561,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -623,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,55 +875,55 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
@@ -804,19 +1041,19 @@
       <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -834,11 +1071,903 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DECDDB-E5B6-4606-A7E7-6139254315F6}">
-  <dimension ref="B3:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B04A64-3E46-44CA-9115-9BDEB7D18D5C}">
+  <dimension ref="B3:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="77.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="2:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A32A5BF-2D70-4BC7-A352-7C53E7059BA8}">
+  <dimension ref="B3:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="84.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="2:4" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7">
+        <v>10</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1492901F-2356-4F18-A4A0-2F81BA2AC92C}">
+  <dimension ref="B3:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="68.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="2:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1337EF-6DBA-49E0-AE1E-F71122B5AFB8}">
+  <dimension ref="B3:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="77.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="2:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E495B0-7E0E-419F-A915-B13BF35654F4}">
+  <dimension ref="B3:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="77.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="2:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DECDDB-E5B6-4606-A7E7-6139254315F6}">
+  <dimension ref="B3:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,177 +1981,187 @@
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
         <v>7</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8">
+    <row r="18" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C19:D19"/>
+  <mergeCells count="8">
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99167D0F-3449-4DDB-9F53-C868C5586959}">
-  <dimension ref="B3:D18"/>
+  <dimension ref="B3:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1034,170 +2173,180 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="2:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
         <v>6</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C18:D18"/>
+  <mergeCells count="8">
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2BBC02-B57F-4696-A9BE-96A04455ED5C}">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B3:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,350 +2360,176 @@
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="2:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
         <v>7</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8">
+    <row r="18" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C19:D19"/>
+  <mergeCells count="8">
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C18:D18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A32A5BF-2D70-4BC7-A352-7C53E7059BA8}">
-  <dimension ref="B3:D19"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" customWidth="1"/>
-    <col min="4" max="4" width="68.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Planificación/Casos de Uso.xlsx
+++ b/Planificación/Casos de Uso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAE21CF-EE11-441D-8739-E5ABF7F6B28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B1AF64-9B70-49F3-A30A-25730E1CBB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CU-001" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="CU-007" sheetId="3" r:id="rId7"/>
     <sheet name="CU-008" sheetId="5" r:id="rId8"/>
     <sheet name="CU-009" sheetId="6" r:id="rId9"/>
+    <sheet name="CU-010" sheetId="12" r:id="rId10"/>
+    <sheet name="CU-011" sheetId="13" r:id="rId11"/>
+    <sheet name="CU-012" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="144">
   <si>
     <t>Versión</t>
   </si>
@@ -216,10 +219,6 @@
   </si>
   <si>
     <t>RF-26</t>
-  </si>
-  <si>
-    <t>El administrador debe haber iniciado sesión en el sistema.
-Los roles deben estar creados previamente.</t>
   </si>
   <si>
     <t>Enviar solicitud de Revisiòn</t>
@@ -418,6 +417,84 @@
   </si>
   <si>
     <t>RF-27</t>
+  </si>
+  <si>
+    <t>Gestión de Permisos por Rol</t>
+  </si>
+  <si>
+    <t>CU-009</t>
+  </si>
+  <si>
+    <t>Este caso de uso describe cómo un administrador del sistema gestiona los permisos específicos para cada rol, determinando qué funciones o módulos del sistema pueden ser accedidos por los usuarios asignados a dichos roles.</t>
+  </si>
+  <si>
+    <t>El usuario debe tener privilegios de administrador o ser un usuario autorizado para gestionar permisos.
+El sistema debe tener roles predefinidos y usuarios asignados a estos roles.</t>
+  </si>
+  <si>
+    <t>El usuario del sistema accede a la plataforma con sus credenciales.</t>
+  </si>
+  <si>
+    <t>El usuario navega al módulo de gestión de roles y permisos.</t>
+  </si>
+  <si>
+    <t>El sistema muestra la lista de roles existentes en el sistema.</t>
+  </si>
+  <si>
+    <t>Se muestra la lista de roles existentes en el sistema</t>
+  </si>
+  <si>
+    <t>Selecciona un rol específico para modificar sus permisos.</t>
+  </si>
+  <si>
+    <t>Muestra una lista de funciones y módulos del sistema junto con el estado actual de los permisos para ese rol</t>
+  </si>
+  <si>
+    <t>Modifica los permisos asignados al rol seleccionando las funciones que podrán ser accedidas por dicho rol.</t>
+  </si>
+  <si>
+    <t>Guarda los cambios y actualiza los permisos del rol.</t>
+  </si>
+  <si>
+    <t>Si el usuario intenta acceder a la gestión de permisos sin los privilegios suficientes se muestra un error por pantalla</t>
+  </si>
+  <si>
+    <t>Los permisos del rol seleccionado quedan actualizados en el sistema.</t>
+  </si>
+  <si>
+    <t>Acceso exclusivo al Módulo D para usuarios con permisos de administración</t>
+  </si>
+  <si>
+    <t>CU-010</t>
+  </si>
+  <si>
+    <t>RF-28</t>
+  </si>
+  <si>
+    <t>El usuario debe estar autenticado en el sistema.
+El sistema debe tener roles predefinidos y asignados a los usuarios.
+Los permisos de administración deben estar correctamente configurados.</t>
+  </si>
+  <si>
+    <t>Este caso de uso describe cómo el sistema restringe el acceso al Módulo D, permitiendo solo a los usuarios con permisos de administración ingresar a dicho módulo.</t>
+  </si>
+  <si>
+    <t>El sistema Verifica las credenciales y determina los permisos asociados al usuario.</t>
+  </si>
+  <si>
+    <t>El usuario intenta acceder al Módulo D desde el menú principal o desde una ruta directa</t>
+  </si>
+  <si>
+    <t>El sistema verifica si tiene los permisos necesarios para acceder a ese modulo</t>
+  </si>
+  <si>
+    <t>El usuario ingresa exitosamente al modulo D</t>
+  </si>
+  <si>
+    <t>Si el usuario no tiene permisos de administración el sistema niega el acceso al modulo D mediante un mensaje por pantalla</t>
+  </si>
+  <si>
+    <t>Los usuarios con permisos de administración pueden utilizar el Módulo D sin restricciones.</t>
   </si>
 </sst>
 </file>
@@ -860,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,6 +1136,579 @@
   <mergeCells count="8">
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C80378-9570-4771-BAD7-22044EEB614A}">
+  <dimension ref="B3:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="90.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="2:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477D27A8-6762-4728-B78B-D2BFAC47D9CD}">
+  <dimension ref="B3:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="90.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="2:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00E9ECF-0375-46E3-A85A-B2F8D9778696}">
+  <dimension ref="B3:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="90.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="2:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -1075,7 +1725,7 @@
   <dimension ref="B3:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,7 +1740,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -1108,7 +1758,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="16"/>
     </row>
@@ -1117,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="16"/>
     </row>
@@ -1126,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="12"/>
     </row>
@@ -1135,7 +1785,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="16"/>
     </row>
@@ -1156,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -1165,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1174,7 +1824,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -1194,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1202,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="20"/>
     </row>
@@ -1232,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A32A5BF-2D70-4BC7-A352-7C53E7059BA8}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,7 +1898,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -1266,7 +1916,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="16"/>
     </row>
@@ -1275,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="12"/>
     </row>
@@ -1284,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="12"/>
     </row>
@@ -1293,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="16"/>
     </row>
@@ -1314,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -1323,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1332,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1341,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1350,7 +2000,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -1359,7 +2009,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -1368,7 +2018,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -1377,7 +2027,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -1386,7 +2036,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1395,7 +2045,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -1415,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1423,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="16"/>
     </row>
@@ -1466,10 +2116,10 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -1487,7 +2137,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="16"/>
     </row>
@@ -1496,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="16"/>
     </row>
@@ -1505,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="12"/>
     </row>
@@ -1514,7 +2164,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="16"/>
     </row>
@@ -1535,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -1544,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1553,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -1562,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -1571,7 +2221,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -1595,7 +2245,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="16"/>
     </row>
@@ -1638,10 +2288,10 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>106</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -1659,7 +2309,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="16"/>
     </row>
@@ -1668,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="16"/>
     </row>
@@ -1677,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="15"/>
     </row>
@@ -1686,7 +2336,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="16"/>
     </row>
@@ -1707,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -1716,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1725,7 +2375,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -1734,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -1743,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -1763,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1771,7 +2421,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="16"/>
     </row>
@@ -1814,10 +2464,10 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>108</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -1835,7 +2485,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="16"/>
     </row>
@@ -1844,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="16"/>
     </row>
@@ -1853,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="15"/>
     </row>
@@ -1862,7 +2512,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="16"/>
     </row>
@@ -1883,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -1892,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1901,7 +2551,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -1910,7 +2560,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -1934,7 +2584,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="16"/>
     </row>
@@ -1943,7 +2593,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="12"/>
     </row>
@@ -1967,7 +2617,7 @@
   <dimension ref="B3:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2027,7 +2677,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="16"/>
     </row>
@@ -2161,19 +2811,19 @@
   <dimension ref="B3:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.5546875" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" customWidth="1"/>
-    <col min="4" max="4" width="68.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>51</v>
@@ -2221,7 +2871,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="16"/>
     </row>
@@ -2343,25 +2993,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2BBC02-B57F-4696-A9BE-96A04455ED5C}">
-  <dimension ref="B3:D20"/>
+  <dimension ref="B3:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.5546875" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" customWidth="1"/>
-    <col min="4" max="4" width="68.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -2379,16 +3029,16 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="2:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -2397,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="D7" s="12"/>
     </row>
@@ -2406,7 +3056,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="16"/>
     </row>
@@ -2426,8 +3076,8 @@
       <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
+      <c r="D10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -2436,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -2445,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -2454,7 +3104,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -2463,7 +3113,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -2472,7 +3122,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -2481,54 +3131,61 @@
         <v>7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planificación/Casos de Uso.xlsx
+++ b/Planificación/Casos de Uso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B1AF64-9B70-49F3-A30A-25730E1CBB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2D70D8-BFC8-4DF9-B2BF-448D8242EA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CU-001" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="174">
   <si>
     <t>Versión</t>
   </si>
@@ -495,6 +495,99 @@
   </si>
   <si>
     <t>Los usuarios con permisos de administración pueden utilizar el Módulo D sin restricciones.</t>
+  </si>
+  <si>
+    <t>Visualización de Estadísticas Clave sobre Lotes de Trabajo</t>
+  </si>
+  <si>
+    <t>CU-011</t>
+  </si>
+  <si>
+    <t>RF-29</t>
+  </si>
+  <si>
+    <t>Este caso de uso describe cómo un usuario accede al sistema para visualizar estadísticas clave relacionadas con los lotes de trabajo, específicamente el número de lotes creados dentro de un rango de tiempo definido.</t>
+  </si>
+  <si>
+    <t>El usuario debe estar autenticado y tener permisos para acceder al módulo de estadísticas.
+Deben existir registros de lotes de trabajo en el sistema.</t>
+  </si>
+  <si>
+    <t>El usuario accede al sistema con sus credenciales.</t>
+  </si>
+  <si>
+    <t>El usuario Navega al módulo de estadísticas.</t>
+  </si>
+  <si>
+    <t>El sistema Muestra las diferentes estadísticas disponibles para su visualización.</t>
+  </si>
+  <si>
+    <t>El usuario Selecciona la opción "Número de lotes de trabajo creados" y define un rango de fechas</t>
+  </si>
+  <si>
+    <t>El sistema Consulta la base de datos para obtener los lotes de trabajo creados dentro del período seleccionado.</t>
+  </si>
+  <si>
+    <t>El sistema Muestra el número total de lotes de trabajo creados durante el período especificado.</t>
+  </si>
+  <si>
+    <t>El usuario visualiza el número de lotes de trabajo creados durante el período de tiempo especificado.</t>
+  </si>
+  <si>
+    <t>Se recomienda que el sistema muestre gráficos o tablas que faciliten la interpretación de los datos de manera visual.</t>
+  </si>
+  <si>
+    <t>RF-30</t>
+  </si>
+  <si>
+    <t>CU-012</t>
+  </si>
+  <si>
+    <t>Búsqueda de Lotes de Trabajo con Múltiples Filtros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este caso de uso describe cómo los usuarios pueden buscar lotes de trabajo en el sistema utilizando diferentes filtros como la fecha de creación, el responsable del lote, el estado del lote y otros criterios.
+</t>
+  </si>
+  <si>
+    <t>El usuario debe estar autenticado y tener permisos para acceder al módulo de búsqueda de lotes de trabajo.
+Deben existir registros de lotes de trabajo en el sistema.</t>
+  </si>
+  <si>
+    <t>Administrador, Digitador VISA, Digitador INTECIL</t>
+  </si>
+  <si>
+    <t>El usuario visualiza una lista de lotes de trabajo que coinciden con los filtros aplicados.</t>
+  </si>
+  <si>
+    <t>El tiempo de respuesta del sistema debe ser óptimo, incluso cuando se apliquen múltiples filtros.</t>
+  </si>
+  <si>
+    <t>El usuario selecciona los filtros deseados</t>
+  </si>
+  <si>
+    <t>El sistema muestra la interfaz de búsqueda con opciones para aplicar filtros (fecha de creación, responsable, estado del lote, etc.).</t>
+  </si>
+  <si>
+    <t>El usuario navega al módulo de búsqueda de lotes de trabajo.</t>
+  </si>
+  <si>
+    <t>El sistema verifica las credenciales y los permisos del usuario.</t>
+  </si>
+  <si>
+    <t>El usuario hace clic en el botón "Buscar"</t>
+  </si>
+  <si>
+    <t>El sistema consulta la base de datos utilizando los filtros seleccionados y muestra una lista de lotes de trabajo que coinciden con los criterios.</t>
+  </si>
+  <si>
+    <t>El usuario visualiza los resultados de la búsqueda y puede hacer clic en un lote de trabajo específico para ver más detalles.</t>
+  </si>
+  <si>
+    <t>Si no se encuentran lotes de trabajo que coincidan con los filtros seleccionados el sistema muestra un mensaje indicando que no se encontraron resultados para los criterios de búsqueda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si no existen lotes de trabajo creados en el período seleccionado muestra un mensaje indicando que no se encontraron lotes de trabajo </t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477D27A8-6762-4728-B78B-D2BFAC47D9CD}">
-  <dimension ref="B3:D21"/>
+  <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,10 +1448,10 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -1376,7 +1469,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D5" s="16"/>
     </row>
@@ -1385,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -1394,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D7" s="12"/>
     </row>
@@ -1424,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -1433,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1442,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -1451,7 +1544,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -1460,64 +1553,60 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+      <c r="C18" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -1534,22 +1623,22 @@
   <dimension ref="B3:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.5546875" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" customWidth="1"/>
-    <col min="4" max="4" width="90.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="108.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -1567,7 +1656,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D5" s="16"/>
     </row>
@@ -1576,16 +1665,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D7" s="12"/>
     </row>
@@ -1594,7 +1683,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="D8" s="16"/>
     </row>
@@ -1615,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -1624,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1633,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -1642,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -1651,23 +1740,29 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="3"/>
+      <c r="D17" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
@@ -1686,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1694,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="D20" s="16"/>
     </row>
@@ -1702,7 +1797,9 @@
       <c r="B21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="12" t="s">
+        <v>164</v>
+      </c>
       <c r="D21" s="12"/>
     </row>
   </sheetData>
@@ -1882,7 +1979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A32A5BF-2D70-4BC7-A352-7C53E7059BA8}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
